--- a/predictive_analytics_for_business/projects/predicting_catalog_demands/All_P1_Files/p1-mailinglist.xlsx
+++ b/predictive_analytics_for_business/projects/predicting_catalog_demands/All_P1_Files/p1-mailinglist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85d1826f63ab8b69/Udacity/predictive_analytics_for_business/projects/predicting_catalog_demands/All_P1_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_411C2AC1B0DF42FBA2E2A880FB865DEEE8E5E6CE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A903CEAA-9809-284D-BA38-6532E0B027E5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="23180" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p1-mailinglist" sheetId="1" r:id="rId1"/>
@@ -1635,7 +1636,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2436,14 +2437,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>0.30503580699999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>0.472724537</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2595,7 +2602,7 @@
         <v>0.57888185000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2633,7 +2640,7 @@
         <v>0.30513781099999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2671,7 +2678,7 @@
         <v>0.38770585499999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>0.267278293</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2747,7 +2754,7 @@
         <v>0.22173949400000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2785,7 +2792,7 @@
         <v>0.19344714900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>0.25065761399999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2861,7 +2868,7 @@
         <v>0.26452315199999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2899,7 +2906,7 @@
         <v>0.190541402</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2937,7 +2944,7 @@
         <v>0.19154490499999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2975,7 +2982,7 @@
         <v>0.212284098</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3013,7 +3020,7 @@
         <v>0.27796209500000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -3051,7 +3058,7 @@
         <v>0.26970955200000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>0.238435971</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>0.23297942399999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>0.21210828600000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>0.22160676600000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3241,7 +3248,7 @@
         <v>0.19171627499999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -3279,7 +3286,7 @@
         <v>0.326687748</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -3317,7 +3324,7 @@
         <v>0.23341563700000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -3355,7 +3362,7 @@
         <v>0.27304769400000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -3393,7 +3400,7 @@
         <v>0.19725817300000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -3431,7 +3438,7 @@
         <v>0.62724496600000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -3469,7 +3476,7 @@
         <v>0.24007403299999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -3507,7 +3514,7 @@
         <v>0.25712037599999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -3545,7 +3552,7 @@
         <v>0.61307269399999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>0.38621956099999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>0.38321151599999997</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>0.29298455800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -3697,7 +3704,7 @@
         <v>0.24377779299999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -3735,7 +3742,7 @@
         <v>0.40985869899999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>0.22907971799999999</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -3811,7 +3818,7 @@
         <v>0.35448979200000003</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -3849,7 +3856,7 @@
         <v>0.20120116699999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -3887,7 +3894,7 @@
         <v>0.213904022</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>0.22415280500000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -3963,7 +3970,7 @@
         <v>0.19136229799999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -4001,7 +4008,7 @@
         <v>0.49015270799999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>0.39429266099999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -4077,7 +4084,7 @@
         <v>0.23105563900000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -4115,7 +4122,7 @@
         <v>0.481368976</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -4153,7 +4160,7 @@
         <v>0.18732610099999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>113</v>
       </c>
@@ -4191,7 +4198,7 @@
         <v>0.207404056</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -4229,7 +4236,7 @@
         <v>0.28427938699999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>0.202412487</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -4305,7 +4312,7 @@
         <v>0.74854627200000001</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -4343,7 +4350,7 @@
         <v>0.21154409499999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -4381,7 +4388,7 @@
         <v>0.190822935</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -4419,7 +4426,7 @@
         <v>0.28486938000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>0.36600523699999998</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -4495,7 +4502,7 @@
         <v>0.25531713499999997</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>0.50114359600000002</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -4571,7 +4578,7 @@
         <v>0.19502314300000001</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -4609,7 +4616,7 @@
         <v>0.194825795</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -4647,7 +4654,7 @@
         <v>0.99882496200000004</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>0.268190172</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -4723,7 +4730,7 @@
         <v>0.21355267999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -4761,7 +4768,7 @@
         <v>0.18643868099999999</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>0.204701043</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -4837,7 +4844,7 @@
         <v>0.19957677400000001</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>0.23578850800000001</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -4913,7 +4920,7 @@
         <v>0.206906695</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -4951,7 +4958,7 @@
         <v>0.20274335399999999</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -4989,7 +4996,7 @@
         <v>0.54112264600000004</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -5027,7 +5034,7 @@
         <v>0.25644796399999997</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -5065,7 +5072,7 @@
         <v>0.24255331899999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>0.246686406</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>167</v>
       </c>
@@ -5141,7 +5148,7 @@
         <v>0.1931495</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -5179,7 +5186,7 @@
         <v>0.200860496</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>171</v>
       </c>
@@ -5217,7 +5224,7 @@
         <v>0.31807552300000003</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -5255,7 +5262,7 @@
         <v>0.21379023799999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>175</v>
       </c>
@@ -5293,7 +5300,7 @@
         <v>0.434214031</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>177</v>
       </c>
@@ -5331,7 +5338,7 @@
         <v>0.56531730099999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>179</v>
       </c>
@@ -5369,7 +5376,7 @@
         <v>0.66242807199999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>181</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>0.19257263599999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>183</v>
       </c>
@@ -5445,7 +5452,7 @@
         <v>0.22685629299999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>185</v>
       </c>
@@ -5483,7 +5490,7 @@
         <v>0.20422359900000001</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -5521,7 +5528,7 @@
         <v>0.28931545800000003</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>0.26960356299999999</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -5597,7 +5604,7 @@
         <v>0.20965584400000001</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>193</v>
       </c>
@@ -5635,7 +5642,7 @@
         <v>0.60683109499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>195</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>0.190932877</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>198</v>
       </c>
@@ -5711,7 +5718,7 @@
         <v>0.19657658</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>0.25236414000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -5787,7 +5794,7 @@
         <v>0.467544876</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>204</v>
       </c>
@@ -5825,7 +5832,7 @@
         <v>0.25396285200000002</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>206</v>
       </c>
@@ -5863,7 +5870,7 @@
         <v>0.28849132199999999</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>208</v>
       </c>
@@ -5901,7 +5908,7 @@
         <v>0.62312773099999996</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>210</v>
       </c>
@@ -5939,7 +5946,7 @@
         <v>0.40099553900000001</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -5977,7 +5984,7 @@
         <v>0.34728293399999999</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>214</v>
       </c>
@@ -6015,7 +6022,7 @@
         <v>0.34281482400000002</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -6053,7 +6060,7 @@
         <v>0.38533516400000001</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>218</v>
       </c>
@@ -6091,7 +6098,7 @@
         <v>0.90327840999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>220</v>
       </c>
@@ -6129,7 +6136,7 @@
         <v>0.20291081799999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>222</v>
       </c>
@@ -6167,7 +6174,7 @@
         <v>0.997198264</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -6205,7 +6212,7 @@
         <v>0.22978557399999999</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>226</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>0.41528256699999999</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>228</v>
       </c>
@@ -6281,7 +6288,7 @@
         <v>0.86891464500000004</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>230</v>
       </c>
@@ -6319,7 +6326,7 @@
         <v>0.22552014300000001</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>232</v>
       </c>
@@ -6357,7 +6364,7 @@
         <v>0.41548464299999999</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -6395,7 +6402,7 @@
         <v>0.198583021</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>236</v>
       </c>
@@ -6433,7 +6440,7 @@
         <v>0.696914637</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>238</v>
       </c>
@@ -6471,7 +6478,7 @@
         <v>0.194225433</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>240</v>
       </c>
@@ -6509,7 +6516,7 @@
         <v>0.38174172200000001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>242</v>
       </c>
@@ -6547,7 +6554,7 @@
         <v>0.347213357</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>244</v>
       </c>
@@ -6585,7 +6592,7 @@
         <v>0.73594038100000003</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>246</v>
       </c>
@@ -6623,7 +6630,7 @@
         <v>0.20697764299999999</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>248</v>
       </c>
@@ -6661,7 +6668,7 @@
         <v>0.19342088399999999</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>250</v>
       </c>
@@ -6699,7 +6706,7 @@
         <v>0.190638001</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>252</v>
       </c>
@@ -6737,7 +6744,7 @@
         <v>0.36029085500000002</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>254</v>
       </c>
@@ -6775,7 +6782,7 @@
         <v>0.387358706</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>256</v>
       </c>
@@ -6813,7 +6820,7 @@
         <v>0.25736213000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>258</v>
       </c>
@@ -6851,7 +6858,7 @@
         <v>0.728853007</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>260</v>
       </c>
@@ -6889,7 +6896,7 @@
         <v>0.295262829</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>262</v>
       </c>
@@ -6927,7 +6934,7 @@
         <v>0.407311372</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>264</v>
       </c>
@@ -6965,7 +6972,7 @@
         <v>0.19669056800000001</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>266</v>
       </c>
@@ -7003,7 +7010,7 @@
         <v>0.335099172</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>268</v>
       </c>
@@ -7041,7 +7048,7 @@
         <v>0.20886049400000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>270</v>
       </c>
@@ -7079,7 +7086,7 @@
         <v>0.20524916600000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>272</v>
       </c>
@@ -7117,7 +7124,7 @@
         <v>0.235958794</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>274</v>
       </c>
@@ -7155,7 +7162,7 @@
         <v>0.30889710399999998</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>276</v>
       </c>
@@ -7193,7 +7200,7 @@
         <v>0.192939324</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>278</v>
       </c>
@@ -7231,7 +7238,7 @@
         <v>0.20695392200000001</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>280</v>
       </c>
@@ -7269,7 +7276,7 @@
         <v>0.330272968</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>282</v>
       </c>
@@ -7307,7 +7314,7 @@
         <v>0.237013536</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>284</v>
       </c>
@@ -7345,7 +7352,7 @@
         <v>0.23443860899999999</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>286</v>
       </c>
@@ -7383,7 +7390,7 @@
         <v>0.251869285</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>288</v>
       </c>
@@ -7421,7 +7428,7 @@
         <v>0.30242839199999999</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>290</v>
       </c>
@@ -7459,7 +7466,7 @@
         <v>0.375563594</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>292</v>
       </c>
@@ -7497,7 +7504,7 @@
         <v>0.43239717700000002</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>294</v>
       </c>
@@ -7535,7 +7542,7 @@
         <v>0.25093504700000002</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>296</v>
       </c>
@@ -7573,7 +7580,7 @@
         <v>0.34201468200000001</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>298</v>
       </c>
@@ -7611,7 +7618,7 @@
         <v>0.53399279600000005</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>300</v>
       </c>
@@ -7649,7 +7656,7 @@
         <v>0.57185430800000003</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>302</v>
       </c>
@@ -7687,7 +7694,7 @@
         <v>0.52588586599999998</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>304</v>
       </c>
@@ -7725,7 +7732,7 @@
         <v>0.27945864100000001</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>306</v>
       </c>
@@ -7763,7 +7770,7 @@
         <v>0.33053641700000003</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>308</v>
       </c>
@@ -7801,7 +7808,7 @@
         <v>0.21394580499999999</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>310</v>
       </c>
@@ -7839,7 +7846,7 @@
         <v>0.74127199600000004</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>312</v>
       </c>
@@ -7877,7 +7884,7 @@
         <v>0.31208787999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>314</v>
       </c>
@@ -7915,7 +7922,7 @@
         <v>0.23846350499999999</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>316</v>
       </c>
@@ -7953,7 +7960,7 @@
         <v>0.65268244499999994</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>318</v>
       </c>
@@ -7991,7 +7998,7 @@
         <v>0.25220889499999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>320</v>
       </c>
@@ -8029,7 +8036,7 @@
         <v>0.756017995</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>322</v>
       </c>
@@ -8067,7 +8074,7 @@
         <v>0.18899550800000001</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>324</v>
       </c>
@@ -8105,7 +8112,7 @@
         <v>0.1921786</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>326</v>
       </c>
@@ -8143,7 +8150,7 @@
         <v>0.28263343699999999</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>328</v>
       </c>
@@ -8181,7 +8188,7 @@
         <v>0.47244747599999998</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>330</v>
       </c>
@@ -8219,7 +8226,7 @@
         <v>0.18771602600000001</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -8257,7 +8264,7 @@
         <v>0.55884010100000003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>334</v>
       </c>
@@ -8295,7 +8302,7 @@
         <v>0.98223442000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>336</v>
       </c>
@@ -8333,7 +8340,7 @@
         <v>0.229408525</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>338</v>
       </c>
@@ -8371,7 +8378,7 @@
         <v>0.220976802</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>340</v>
       </c>
@@ -8409,7 +8416,7 @@
         <v>0.225151025</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>342</v>
       </c>
@@ -8447,7 +8454,7 @@
         <v>0.220348242</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>344</v>
       </c>
@@ -8485,7 +8492,7 @@
         <v>0.19937788000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>346</v>
       </c>
@@ -8523,7 +8530,7 @@
         <v>0.47103065399999999</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>348</v>
       </c>
@@ -8561,7 +8568,7 @@
         <v>0.37826958700000002</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>350</v>
       </c>
@@ -8599,7 +8606,7 @@
         <v>0.90311748999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>352</v>
       </c>
@@ -8637,7 +8644,7 @@
         <v>0.477434953</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>354</v>
       </c>
@@ -8675,7 +8682,7 @@
         <v>0.240232948</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>356</v>
       </c>
@@ -8713,7 +8720,7 @@
         <v>0.20727762399999999</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>358</v>
       </c>
@@ -8751,7 +8758,7 @@
         <v>0.18738121999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>360</v>
       </c>
@@ -8789,7 +8796,7 @@
         <v>0.28540892899999998</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>362</v>
       </c>
@@ -8827,7 +8834,7 @@
         <v>0.212397898</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>364</v>
       </c>
@@ -8865,7 +8872,7 @@
         <v>0.69072920299999996</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>366</v>
       </c>
@@ -8903,7 +8910,7 @@
         <v>0.226231668</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>368</v>
       </c>
@@ -8941,7 +8948,7 @@
         <v>0.31573054699999997</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>370</v>
       </c>
@@ -8979,7 +8986,7 @@
         <v>0.62019947600000003</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>372</v>
       </c>
@@ -9017,7 +9024,7 @@
         <v>0.40871876899999998</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>374</v>
       </c>
@@ -9055,7 +9062,7 @@
         <v>0.20889311799999999</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>376</v>
       </c>
@@ -9093,7 +9100,7 @@
         <v>0.23043298200000001</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>378</v>
       </c>
@@ -9131,7 +9138,7 @@
         <v>0.38457783499999998</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>380</v>
       </c>
@@ -9169,7 +9176,7 @@
         <v>0.42744749799999998</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>382</v>
       </c>
@@ -9207,7 +9214,7 @@
         <v>0.27713596600000001</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>384</v>
       </c>
@@ -9245,7 +9252,7 @@
         <v>0.92694539799999998</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>386</v>
       </c>
@@ -9283,7 +9290,7 @@
         <v>0.211074821</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>388</v>
       </c>
@@ -9321,7 +9328,7 @@
         <v>0.36646952500000002</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>390</v>
       </c>
@@ -9359,7 +9366,7 @@
         <v>0.196525851</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>392</v>
       </c>
@@ -9397,7 +9404,7 @@
         <v>0.185729488</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>394</v>
       </c>
@@ -9435,7 +9442,7 @@
         <v>0.37762712399999998</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>397</v>
       </c>
@@ -9473,7 +9480,7 @@
         <v>0.99999792399999998</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>399</v>
       </c>
@@ -9511,7 +9518,7 @@
         <v>0.35312995600000002</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>401</v>
       </c>
@@ -9549,7 +9556,7 @@
         <v>0.30976582000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>403</v>
       </c>
@@ -9587,7 +9594,7 @@
         <v>0.193144598</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>405</v>
       </c>
@@ -9625,7 +9632,7 @@
         <v>0.19539134799999999</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>407</v>
       </c>
@@ -9663,7 +9670,7 @@
         <v>0.33073484199999997</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>409</v>
       </c>
@@ -9701,7 +9708,7 @@
         <v>0.33436614799999997</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>411</v>
       </c>
@@ -9739,7 +9746,7 @@
         <v>0.53296923200000001</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>413</v>
       </c>
@@ -9777,7 +9784,7 @@
         <v>0.71832722800000004</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>415</v>
       </c>
@@ -9815,7 +9822,7 @@
         <v>0.19453941299999999</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>417</v>
       </c>
@@ -9853,7 +9860,7 @@
         <v>0.20658236499999999</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>419</v>
       </c>
@@ -9891,7 +9898,7 @@
         <v>0.64060452700000003</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>421</v>
       </c>
@@ -9929,7 +9936,7 @@
         <v>0.25257163300000002</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>423</v>
       </c>
@@ -9967,7 +9974,7 @@
         <v>0.21258152499999999</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>425</v>
       </c>
@@ -10005,7 +10012,7 @@
         <v>0.84421047400000004</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>427</v>
       </c>
@@ -10043,7 +10050,7 @@
         <v>0.19454253799999999</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>429</v>
       </c>
@@ -10081,7 +10088,7 @@
         <v>0.210923315</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>431</v>
       </c>
@@ -10119,7 +10126,7 @@
         <v>0.56343069499999998</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>433</v>
       </c>
@@ -10157,7 +10164,7 @@
         <v>0.245712228</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>435</v>
       </c>
@@ -10195,7 +10202,7 @@
         <v>0.26837336499999997</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>437</v>
       </c>
@@ -10233,7 +10240,7 @@
         <v>0.44232325700000003</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>439</v>
       </c>
@@ -10271,7 +10278,7 @@
         <v>0.268439704</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>441</v>
       </c>
@@ -10309,7 +10316,7 @@
         <v>0.25802857200000001</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>443</v>
       </c>
@@ -10347,7 +10354,7 @@
         <v>0.71866595300000002</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>445</v>
       </c>
@@ -10385,7 +10392,7 @@
         <v>0.20298744899999999</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>447</v>
       </c>
@@ -10423,7 +10430,7 @@
         <v>0.22074221199999999</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>449</v>
       </c>
@@ -10461,7 +10468,7 @@
         <v>0.21834590700000001</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>451</v>
       </c>
@@ -10499,7 +10506,7 @@
         <v>0.49590343999999997</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>453</v>
       </c>
@@ -10537,7 +10544,7 @@
         <v>0.230040625</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>455</v>
       </c>
@@ -10575,7 +10582,7 @@
         <v>0.22603379000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>457</v>
       </c>
@@ -10613,7 +10620,7 @@
         <v>0.99500640900000004</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>459</v>
       </c>
@@ -10651,7 +10658,7 @@
         <v>0.19863646900000001</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>461</v>
       </c>
@@ -10689,7 +10696,7 @@
         <v>0.25795229400000003</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>463</v>
       </c>
@@ -10727,7 +10734,7 @@
         <v>0.234779407</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>465</v>
       </c>
@@ -10765,7 +10772,7 @@
         <v>0.22868772100000001</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>467</v>
       </c>
@@ -10803,7 +10810,7 @@
         <v>0.20074213199999999</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>469</v>
       </c>
@@ -10841,7 +10848,7 @@
         <v>0.201315412</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>471</v>
       </c>
@@ -10879,7 +10886,7 @@
         <v>0.40873564800000001</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>473</v>
       </c>
@@ -10917,7 +10924,7 @@
         <v>0.33625572199999998</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>475</v>
       </c>
@@ -10955,7 +10962,7 @@
         <v>0.38620364499999998</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>477</v>
       </c>
@@ -10993,7 +11000,7 @@
         <v>0.30567097599999998</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>479</v>
       </c>
@@ -11031,7 +11038,7 @@
         <v>0.32492758399999999</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>482</v>
       </c>
@@ -11069,7 +11076,7 @@
         <v>0.86173392699999996</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>484</v>
       </c>
@@ -11107,7 +11114,7 @@
         <v>0.25715539599999998</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>486</v>
       </c>
@@ -11145,7 +11152,7 @@
         <v>0.27437367800000001</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>488</v>
       </c>
@@ -11183,7 +11190,7 @@
         <v>0.19658705700000001</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>490</v>
       </c>
@@ -11221,7 +11228,7 @@
         <v>0.24739223499999999</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>492</v>
       </c>
@@ -11259,7 +11266,7 @@
         <v>0.28286190300000003</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>494</v>
       </c>
@@ -11297,7 +11304,7 @@
         <v>0.193452291</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>496</v>
       </c>
@@ -11335,7 +11342,7 @@
         <v>0.23563063300000001</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>498</v>
       </c>
@@ -11373,7 +11380,7 @@
         <v>0.32773430799999997</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>500</v>
       </c>
@@ -11411,7 +11418,7 @@
         <v>0.28752050800000001</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>502</v>
       </c>
@@ -11449,7 +11456,7 @@
         <v>0.18905708600000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>504</v>
       </c>
@@ -11487,7 +11494,7 @@
         <v>0.303377275</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>506</v>
       </c>
@@ -11525,7 +11532,7 @@
         <v>0.80586839099999996</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>508</v>
       </c>
@@ -11563,7 +11570,7 @@
         <v>0.24078201599999999</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>510</v>
       </c>
@@ -11601,7 +11608,7 @@
         <v>0.23030685000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>512</v>
       </c>
@@ -11639,7 +11646,7 @@
         <v>0.19079539100000001</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>514</v>
       </c>
@@ -11677,7 +11684,7 @@
         <v>0.47738814800000001</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>516</v>
       </c>
@@ -11715,7 +11722,7 @@
         <v>0.20032677700000001</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>518</v>
       </c>
@@ -11753,7 +11760,7 @@
         <v>0.28417725999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>520</v>
       </c>
@@ -11791,7 +11798,7 @@
         <v>0.198620242</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>522</v>
       </c>
@@ -11829,7 +11836,7 @@
         <v>0.21619390699999999</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>524</v>
       </c>
@@ -11867,7 +11874,7 @@
         <v>0.192800104</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>526</v>
       </c>
@@ -11905,7 +11912,7 @@
         <v>0.42345578499999997</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>528</v>
       </c>
@@ -11943,7 +11950,7 @@
         <v>0.25925051500000001</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>530</v>
       </c>
